--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_40pct/Rankings/estadisticos_General.xlsx
@@ -49,16 +49,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>MCPS</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5790214985339739</v>
+        <v>0.5724119201840667</v>
       </c>
       <c r="C2">
-        <v>0.5209642163189109</v>
+        <v>0.5074725245093064</v>
       </c>
       <c r="D2">
-        <v>0.3165555853699454</v>
+        <v>0.3138969006198054</v>
       </c>
       <c r="E2">
-        <v>0.5467078272075102</v>
+        <v>0.5483758977605981</v>
       </c>
       <c r="F2">
-        <v>0.2133100253987114</v>
+        <v>0.2073951226355272</v>
       </c>
       <c r="G2">
-        <v>2.85853248004857</v>
+        <v>3.635311028779202</v>
       </c>
       <c r="H2">
-        <v>0.3480090279986452</v>
+        <v>0.3434879352223499</v>
       </c>
       <c r="I2">
-        <v>0.8725156456719422</v>
+        <v>0.8546305462861491</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.7764851498794437</v>
+        <v>0.8376914854236106</v>
       </c>
       <c r="C3">
-        <v>0.5869823735968495</v>
+        <v>0.606452481550139</v>
       </c>
       <c r="D3">
-        <v>0.5613954729289699</v>
+        <v>0.7782093044427568</v>
       </c>
       <c r="E3">
-        <v>0.7229957623994889</v>
+        <v>0.9289927353734838</v>
       </c>
       <c r="F3">
-        <v>0.2178225796640376</v>
+        <v>0.2079542034971669</v>
       </c>
       <c r="G3">
-        <v>6.994469345456044</v>
+        <v>17.10588813287047</v>
       </c>
       <c r="H3">
-        <v>0.4061232301590418</v>
+        <v>0.4087713502577568</v>
       </c>
       <c r="I3">
-        <v>1.010833647434276</v>
+        <v>1.022633930236485</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.8768703123610273</v>
+        <v>0.8456505654507867</v>
       </c>
       <c r="C4">
-        <v>0.5695708484386679</v>
+        <v>0.6140064318709193</v>
       </c>
       <c r="D4">
-        <v>1.681459452400637</v>
+        <v>0.7658785620084713</v>
       </c>
       <c r="E4">
-        <v>1.917569141864552</v>
+        <v>0.9056678884856043</v>
       </c>
       <c r="F4">
-        <v>0.2194478453514866</v>
+        <v>0.2143272785000574</v>
       </c>
       <c r="G4">
-        <v>19.33960951796834</v>
+        <v>17.60344290474935</v>
       </c>
       <c r="H4">
-        <v>0.3833979187096374</v>
+        <v>0.4114310992969385</v>
       </c>
       <c r="I4">
-        <v>0.9772911104260411</v>
+        <v>1.033426288677679</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.137502484051251</v>
+        <v>1.493714502735786</v>
       </c>
       <c r="C5">
-        <v>0.6681605823867049</v>
+        <v>0.684093366837166</v>
       </c>
       <c r="D5">
-        <v>1.728915952115956</v>
+        <v>3.072214836384236</v>
       </c>
       <c r="E5">
-        <v>1.519922792571289</v>
+        <v>2.056761737773434</v>
       </c>
       <c r="F5">
-        <v>0.2223198475372553</v>
+        <v>0.2192035124292709</v>
       </c>
       <c r="G5">
-        <v>21.30404685577531</v>
+        <v>44.97871575319643</v>
       </c>
       <c r="H5">
-        <v>0.4325367762007646</v>
+        <v>0.4455282371260626</v>
       </c>
       <c r="I5">
-        <v>1.152781310877759</v>
+        <v>1.19644524170943</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.178219531125906</v>
+        <v>1.514704241553418</v>
       </c>
       <c r="C6">
-        <v>0.6722467279904123</v>
+        <v>0.6800399908470738</v>
       </c>
       <c r="D6">
-        <v>1.952312971443379</v>
+        <v>3.00466433459261</v>
       </c>
       <c r="E6">
-        <v>1.657002723064478</v>
+        <v>1.98366403959571</v>
       </c>
       <c r="F6">
-        <v>0.2205535735395071</v>
+        <v>0.2191379994519403</v>
       </c>
       <c r="G6">
-        <v>22.45572426345746</v>
+        <v>37.08813858341382</v>
       </c>
       <c r="H6">
-        <v>0.4366180679658474</v>
+        <v>0.4386035092676207</v>
       </c>
       <c r="I6">
-        <v>1.134652633795871</v>
+        <v>1.160640651258181</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.39167447515791</v>
+        <v>1.960225584628323</v>
       </c>
       <c r="C7">
-        <v>0.7115822712901002</v>
+        <v>0.5692930574331727</v>
       </c>
       <c r="D7">
-        <v>2.001597845707023</v>
+        <v>8.117050353250441</v>
       </c>
       <c r="E7">
-        <v>1.438265831152725</v>
+        <v>4.140875630285946</v>
       </c>
       <c r="F7">
-        <v>0.2181262272533705</v>
+        <v>0.2156154534938366</v>
       </c>
       <c r="G7">
-        <v>22.54362358459068</v>
+        <v>117.0637238690478</v>
       </c>
       <c r="H7">
-        <v>0.4282676942339885</v>
+        <v>0.3887618137687079</v>
       </c>
       <c r="I7">
-        <v>1.393104370228647</v>
+        <v>0.9946659243602993</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2.026130632456591</v>
+        <v>2.195635637814436</v>
       </c>
       <c r="C8">
-        <v>1.287974873850355</v>
+        <v>0.9203396398566225</v>
       </c>
       <c r="D8">
-        <v>2.382141695733929</v>
+        <v>5.529953377112617</v>
       </c>
       <c r="E8">
-        <v>1.175709827182115</v>
+        <v>2.518611595600263</v>
       </c>
       <c r="F8">
-        <v>0.3204545981376693</v>
+        <v>0.2165879452164768</v>
       </c>
       <c r="G8">
-        <v>25.62183889617705</v>
+        <v>82.33331165327446</v>
       </c>
       <c r="H8">
-        <v>0.6730049362831146</v>
+        <v>0.4718759388706634</v>
       </c>
       <c r="I8">
-        <v>2.495668103838564</v>
+        <v>1.76362873388407</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2.721817742286819</v>
+        <v>4.200855921370634</v>
       </c>
       <c r="C9">
-        <v>0.980367711022176</v>
+        <v>0.9798777350661844</v>
       </c>
       <c r="D9">
-        <v>5.07433074135166</v>
+        <v>12.09847721460335</v>
       </c>
       <c r="E9">
-        <v>1.864316872697106</v>
+        <v>2.880002894899552</v>
       </c>
       <c r="F9">
-        <v>0.2198407602748396</v>
+        <v>0.2175285734600527</v>
       </c>
       <c r="G9">
-        <v>38.3057516375878</v>
+        <v>144.4029186868943</v>
       </c>
       <c r="H9">
-        <v>0.5019478662219223</v>
+        <v>0.494180257471151</v>
       </c>
       <c r="I9">
-        <v>2.074681501150377</v>
+        <v>2.41064864595748</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2.955455533854199</v>
+        <v>4.5231808073141</v>
       </c>
       <c r="C10">
-        <v>0.9906752137227488</v>
+        <v>0.96069525538237</v>
       </c>
       <c r="D10">
-        <v>5.530556081188023</v>
+        <v>12.94435721540323</v>
       </c>
       <c r="E10">
-        <v>1.871304107890145</v>
+        <v>2.86178195540445</v>
       </c>
       <c r="F10">
-        <v>0.2210725715982343</v>
+        <v>0.2075327905730808</v>
       </c>
       <c r="G10">
-        <v>44.48110270305059</v>
+        <v>163.5807745031833</v>
       </c>
       <c r="H10">
-        <v>0.4958837869042492</v>
+        <v>0.4761310860684206</v>
       </c>
       <c r="I10">
-        <v>2.25428489440766</v>
+        <v>2.77583217795233</v>
       </c>
     </row>
   </sheetData>
